--- a/Code/Results/Cases/Case_5_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4211838331451</v>
+        <v>23.20031648293078</v>
       </c>
       <c r="C2">
-        <v>16.64865790233344</v>
+        <v>9.121142890126894</v>
       </c>
       <c r="D2">
-        <v>5.336258922638248</v>
+        <v>8.180230647678927</v>
       </c>
       <c r="E2">
-        <v>6.702691411838674</v>
+        <v>9.726312213286716</v>
       </c>
       <c r="F2">
-        <v>40.32817583781739</v>
+        <v>42.38014468077398</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.151547753749747</v>
+        <v>10.02731762449572</v>
       </c>
       <c r="M2">
-        <v>14.79040556857034</v>
+        <v>18.44414851031804</v>
       </c>
       <c r="N2">
-        <v>14.5097109707932</v>
+        <v>21.31830534023507</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.71718003369047</v>
+        <v>22.79640028415686</v>
       </c>
       <c r="C3">
-        <v>15.47567058996599</v>
+        <v>8.520819702750625</v>
       </c>
       <c r="D3">
-        <v>5.399100070812694</v>
+        <v>8.203359364886706</v>
       </c>
       <c r="E3">
-        <v>6.627171980669787</v>
+        <v>9.708442519933659</v>
       </c>
       <c r="F3">
-        <v>38.50104622898717</v>
+        <v>42.07396438172274</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.078935175467479</v>
+        <v>10.04054932860214</v>
       </c>
       <c r="M3">
-        <v>14.12613076348801</v>
+        <v>18.37493880585787</v>
       </c>
       <c r="N3">
-        <v>14.69421943513979</v>
+        <v>21.37021744265675</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.6357012260598</v>
+        <v>22.55225410524635</v>
       </c>
       <c r="C4">
-        <v>14.72118795771262</v>
+        <v>8.129543559500888</v>
       </c>
       <c r="D4">
-        <v>5.440742504563971</v>
+        <v>8.218590814447067</v>
       </c>
       <c r="E4">
-        <v>6.581098593838861</v>
+        <v>9.697215147094937</v>
       </c>
       <c r="F4">
-        <v>37.38315363987101</v>
+        <v>41.8969425217612</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.037750212838799</v>
+        <v>10.05016902832882</v>
       </c>
       <c r="M4">
-        <v>13.71603117460447</v>
+        <v>18.33678581621586</v>
       </c>
       <c r="N4">
-        <v>14.81256043272058</v>
+        <v>21.40404577617452</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.18629161099351</v>
+        <v>22.4538732988328</v>
       </c>
       <c r="C5">
-        <v>14.4049355768978</v>
+        <v>7.964377621417094</v>
       </c>
       <c r="D5">
-        <v>5.458434458036391</v>
+        <v>8.225056415159502</v>
       </c>
       <c r="E5">
-        <v>6.562370262443334</v>
+        <v>9.692575405310716</v>
       </c>
       <c r="F5">
-        <v>36.92892216880338</v>
+        <v>41.8276175720948</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.02180090828552</v>
+        <v>10.05446503871265</v>
       </c>
       <c r="M5">
-        <v>13.54851250580897</v>
+        <v>18.32233977751599</v>
       </c>
       <c r="N5">
-        <v>14.86201144444061</v>
+        <v>21.41832211871932</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.11114871163912</v>
+        <v>22.43760839615973</v>
       </c>
       <c r="C6">
-        <v>14.3518860308632</v>
+        <v>7.936606157333362</v>
       </c>
       <c r="D6">
-        <v>5.461414576102853</v>
+        <v>8.226145633695998</v>
       </c>
       <c r="E6">
-        <v>6.5592625279622</v>
+        <v>9.691801075611279</v>
       </c>
       <c r="F6">
-        <v>36.85358807206253</v>
+        <v>41.8162775593719</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.019202299947649</v>
+        <v>10.05520108717855</v>
       </c>
       <c r="M6">
-        <v>13.52067740664759</v>
+        <v>18.32000781733085</v>
       </c>
       <c r="N6">
-        <v>14.87029563991577</v>
+        <v>21.42072234125568</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.62967526813014</v>
+        <v>22.55092262584592</v>
       </c>
       <c r="C7">
-        <v>14.71695870086359</v>
+        <v>8.127339245173227</v>
       </c>
       <c r="D7">
-        <v>5.440978236777918</v>
+        <v>8.218676965071195</v>
       </c>
       <c r="E7">
-        <v>6.58084586098532</v>
+        <v>9.697152835420395</v>
       </c>
       <c r="F7">
-        <v>37.37702188821375</v>
+        <v>41.8959961258626</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.037531765816487</v>
+        <v>10.05022544400875</v>
       </c>
       <c r="M7">
-        <v>13.7137733389076</v>
+        <v>18.3365865196763</v>
       </c>
       <c r="N7">
-        <v>14.8132224352639</v>
+        <v>21.40423632434928</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.84101457965965</v>
+        <v>23.06032937887678</v>
       </c>
       <c r="C8">
-        <v>16.25121028088952</v>
+        <v>8.918847913961097</v>
       </c>
       <c r="D8">
-        <v>5.357261867050493</v>
+        <v>8.187991328453943</v>
       </c>
       <c r="E8">
-        <v>6.676573367566155</v>
+        <v>9.720203551008076</v>
       </c>
       <c r="F8">
-        <v>39.69751988211691</v>
+        <v>42.27232972341312</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.125792580088335</v>
+        <v>10.03156949000335</v>
       </c>
       <c r="M8">
-        <v>14.56191260878536</v>
+        <v>18.41939007785528</v>
       </c>
       <c r="N8">
-        <v>14.57225196112586</v>
+        <v>21.33579884677151</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.06942240148048</v>
+        <v>24.08372626987843</v>
       </c>
       <c r="C9">
-        <v>18.99704985544588</v>
+        <v>10.29183033728992</v>
       </c>
       <c r="D9">
-        <v>5.219830241327325</v>
+        <v>8.136011402257251</v>
       </c>
       <c r="E9">
-        <v>6.8680742606834</v>
+        <v>9.76339481053034</v>
       </c>
       <c r="F9">
-        <v>44.27091597161219</v>
+        <v>43.09479510621736</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.326845010035233</v>
+        <v>10.00685491608031</v>
       </c>
       <c r="M9">
-        <v>16.20230753572482</v>
+        <v>18.6157304367277</v>
       </c>
       <c r="N9">
-        <v>14.14222453691889</v>
+        <v>21.21711358252189</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.06578036152615</v>
+        <v>24.84233232133093</v>
       </c>
       <c r="C10">
-        <v>20.86849220617752</v>
+        <v>11.19242253867685</v>
       </c>
       <c r="D10">
-        <v>5.139291366158552</v>
+        <v>8.102844657830788</v>
       </c>
       <c r="E10">
-        <v>7.013431617588965</v>
+        <v>9.79392349220857</v>
       </c>
       <c r="F10">
-        <v>47.64260112110683</v>
+        <v>43.74674981790645</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.493155856264127</v>
+        <v>9.995938068887703</v>
       </c>
       <c r="M10">
-        <v>17.62744222064163</v>
+        <v>18.77994718712089</v>
       </c>
       <c r="N10">
-        <v>13.85640645191037</v>
+        <v>21.13939850484956</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.38572592698155</v>
+        <v>25.18721969605732</v>
       </c>
       <c r="C11">
-        <v>21.69191763653607</v>
+        <v>11.57888310752609</v>
       </c>
       <c r="D11">
-        <v>5.108249718251514</v>
+        <v>8.088853209887965</v>
       </c>
       <c r="E11">
-        <v>7.08122264165744</v>
+        <v>9.807555181247986</v>
       </c>
       <c r="F11">
-        <v>49.18140282650003</v>
+        <v>44.05279782175253</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.57325759778304</v>
+        <v>9.992544050040459</v>
       </c>
       <c r="M11">
-        <v>18.33322039101926</v>
+        <v>18.85880601053776</v>
       </c>
       <c r="N11">
-        <v>13.73415820428884</v>
+        <v>21.10610828936532</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.87983994700553</v>
+        <v>25.31765570172889</v>
       </c>
       <c r="C12">
-        <v>22.00008090747268</v>
+        <v>11.72190508491963</v>
       </c>
       <c r="D12">
-        <v>5.097419610686823</v>
+        <v>8.083713233337054</v>
       </c>
       <c r="E12">
-        <v>7.107199806939199</v>
+        <v>9.812680677661607</v>
       </c>
       <c r="F12">
-        <v>49.7652401519922</v>
+        <v>44.16997138394821</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.604269712062731</v>
+        <v>9.991484767435765</v>
       </c>
       <c r="M12">
-        <v>18.59711746164666</v>
+        <v>18.88924816669322</v>
       </c>
       <c r="N12">
-        <v>13.68911624253492</v>
+        <v>21.09379934994232</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.77366949226882</v>
+        <v>25.28957342888545</v>
       </c>
       <c r="C13">
-        <v>21.93386840715092</v>
+        <v>11.69125022546731</v>
       </c>
       <c r="D13">
-        <v>5.099708796711625</v>
+        <v>8.084813169238242</v>
       </c>
       <c r="E13">
-        <v>7.101590350218963</v>
+        <v>9.811578430485779</v>
       </c>
       <c r="F13">
-        <v>49.63944175404698</v>
+        <v>44.14468037379734</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.597559768068286</v>
+        <v>9.991702855708457</v>
       </c>
       <c r="M13">
-        <v>18.5404272786848</v>
+        <v>18.88266639715575</v>
       </c>
       <c r="N13">
-        <v>13.69875878312481</v>
+        <v>21.09643706397651</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.42648857381707</v>
+        <v>25.19795481599297</v>
       </c>
       <c r="C14">
-        <v>21.71734129518509</v>
+        <v>11.59071609541974</v>
       </c>
       <c r="D14">
-        <v>5.107339421521523</v>
+        <v>8.088427164997846</v>
       </c>
       <c r="E14">
-        <v>7.083353237558591</v>
+        <v>9.807977589408051</v>
       </c>
       <c r="F14">
-        <v>49.22940990229503</v>
+        <v>44.06241259076016</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.575795112837428</v>
+        <v>9.992452374515864</v>
       </c>
       <c r="M14">
-        <v>18.35499705965749</v>
+        <v>18.86129898460884</v>
       </c>
       <c r="N14">
-        <v>13.73042664451333</v>
+        <v>21.10508966206527</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.2131009654597</v>
+        <v>25.14181030406568</v>
       </c>
       <c r="C15">
-        <v>21.58424852773589</v>
+        <v>11.52870389615456</v>
       </c>
       <c r="D15">
-        <v>5.112137752799754</v>
+        <v>8.090661473962104</v>
       </c>
       <c r="E15">
-        <v>7.072224534950757</v>
+        <v>9.80576722147471</v>
       </c>
       <c r="F15">
-        <v>48.97841550525911</v>
+        <v>44.0121853897727</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.562553413645182</v>
+        <v>9.992940898642356</v>
       </c>
       <c r="M15">
-        <v>18.24098641600822</v>
+        <v>18.84828582577384</v>
       </c>
       <c r="N15">
-        <v>13.7499914416533</v>
+        <v>21.11042837304133</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.97869021737217</v>
+        <v>24.81977724399716</v>
       </c>
       <c r="C16">
-        <v>20.81414770208679</v>
+        <v>11.16670058903792</v>
       </c>
       <c r="D16">
-        <v>5.141442392640696</v>
+        <v>8.103781145716448</v>
       </c>
       <c r="E16">
-        <v>7.009040269534371</v>
+        <v>9.793027502490837</v>
       </c>
       <c r="F16">
-        <v>47.54216813796751</v>
+        <v>43.72693248279056</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.488013741274284</v>
+        <v>9.996191502963603</v>
       </c>
       <c r="M16">
-        <v>17.58083073029083</v>
+        <v>18.77487572480193</v>
       </c>
       <c r="N16">
-        <v>13.86456282545601</v>
+        <v>21.14161566743206</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.21069055140424</v>
+        <v>24.62206928776162</v>
       </c>
       <c r="C17">
-        <v>20.3348105792524</v>
+        <v>10.93868745188481</v>
       </c>
       <c r="D17">
-        <v>5.160931947852164</v>
+        <v>8.112110867959634</v>
       </c>
       <c r="E17">
-        <v>6.970749365418641</v>
+        <v>9.785146737974443</v>
       </c>
       <c r="F17">
-        <v>46.66259135034225</v>
+        <v>43.55430721945754</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.443451083395484</v>
+        <v>9.998588240377169</v>
       </c>
       <c r="M17">
-        <v>17.1695382392452</v>
+        <v>18.73089323878386</v>
       </c>
       <c r="N17">
-        <v>13.93692568541247</v>
+        <v>21.16127688529575</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.76486586519008</v>
+        <v>24.50834127544064</v>
       </c>
       <c r="C18">
-        <v>20.05645759838594</v>
+        <v>10.8053533941606</v>
       </c>
       <c r="D18">
-        <v>5.17266019104666</v>
+        <v>8.117005050502724</v>
       </c>
       <c r="E18">
-        <v>6.948877757184461</v>
+        <v>9.780589821726252</v>
       </c>
       <c r="F18">
-        <v>46.15711824054803</v>
+        <v>43.45591424834608</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.41823554541643</v>
+        <v>10.00011476515286</v>
       </c>
       <c r="M18">
-        <v>16.930567111132</v>
+        <v>18.70598796012189</v>
       </c>
       <c r="N18">
-        <v>13.97926897090436</v>
+        <v>21.17277960944947</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.61320137069201</v>
+        <v>24.46983715166859</v>
       </c>
       <c r="C19">
-        <v>19.96174657059303</v>
+        <v>10.75983264275759</v>
       </c>
       <c r="D19">
-        <v>5.176716885222212</v>
+        <v>8.118679833027713</v>
       </c>
       <c r="E19">
-        <v>6.941496733120787</v>
+        <v>9.779042778975072</v>
       </c>
       <c r="F19">
-        <v>45.9860392054696</v>
+        <v>43.4227565101237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.409768294234978</v>
+        <v>10.00065703904533</v>
       </c>
       <c r="M19">
-        <v>16.84923430009503</v>
+        <v>18.6976233539963</v>
       </c>
       <c r="N19">
-        <v>13.99372607177318</v>
+        <v>21.17670755170897</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.29286570048382</v>
+        <v>24.64311784085452</v>
       </c>
       <c r="C20">
-        <v>20.38610874153449</v>
+        <v>10.96318605421997</v>
       </c>
       <c r="D20">
-        <v>5.158802800424913</v>
+        <v>8.111213474971359</v>
       </c>
       <c r="E20">
-        <v>6.974809291329448</v>
+        <v>9.785988151974037</v>
       </c>
       <c r="F20">
-        <v>46.75617629116292</v>
+        <v>43.57259127322114</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.448151561702972</v>
+        <v>9.998317788320341</v>
       </c>
       <c r="M20">
-        <v>17.21356817988045</v>
+        <v>18.73553477358592</v>
       </c>
       <c r="N20">
-        <v>13.92914692362857</v>
+        <v>21.15916382018943</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.52861502165901</v>
+        <v>25.22487096472711</v>
       </c>
       <c r="C21">
-        <v>21.78103645677394</v>
+        <v>11.62033543342609</v>
       </c>
       <c r="D21">
-        <v>5.105071961456425</v>
+        <v>8.08736134593047</v>
       </c>
       <c r="E21">
-        <v>7.08870101877246</v>
+        <v>9.809036232870152</v>
       </c>
       <c r="F21">
-        <v>49.3498114535065</v>
+        <v>44.08654256538455</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.582169127311547</v>
+        <v>9.992226091390433</v>
       </c>
       <c r="M21">
-        <v>18.40955131047209</v>
+        <v>18.86755951480227</v>
       </c>
       <c r="N21">
-        <v>13.72108987915367</v>
+        <v>21.10254010853203</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.95675119921559</v>
+        <v>25.60405759415331</v>
       </c>
       <c r="C22">
-        <v>22.67163707669578</v>
+        <v>12.03046398361793</v>
       </c>
       <c r="D22">
-        <v>5.075417728625072</v>
+        <v>8.072695496652806</v>
       </c>
       <c r="E22">
-        <v>7.164960831586424</v>
+        <v>9.823886700131142</v>
       </c>
       <c r="F22">
-        <v>51.05179550448378</v>
+        <v>44.42985948230282</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.673741297470935</v>
+        <v>9.989561781480305</v>
       </c>
       <c r="M22">
-        <v>19.17173841052084</v>
+        <v>18.95721733290635</v>
       </c>
       <c r="N22">
-        <v>13.59248625798243</v>
+        <v>21.0672667422397</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19737026787462</v>
+        <v>25.40181547170266</v>
       </c>
       <c r="C23">
-        <v>22.19809955916547</v>
+        <v>11.81333606067724</v>
       </c>
       <c r="D23">
-        <v>5.090699440901226</v>
+        <v>8.080438274486056</v>
       </c>
       <c r="E23">
-        <v>7.124067207817884</v>
+        <v>9.815980104165812</v>
       </c>
       <c r="F23">
-        <v>50.14259957692349</v>
+        <v>44.24597359325298</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.624487720112944</v>
+        <v>9.990863323108073</v>
       </c>
       <c r="M23">
-        <v>18.76662107355639</v>
+        <v>18.90906279063191</v>
       </c>
       <c r="N23">
-        <v>13.66039814301602</v>
+        <v>21.0859339379825</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.25572771744579</v>
+        <v>24.63360197610892</v>
       </c>
       <c r="C24">
-        <v>20.36292551455783</v>
+        <v>10.95211723403113</v>
       </c>
       <c r="D24">
-        <v>5.159763766391403</v>
+        <v>8.111618858359058</v>
       </c>
       <c r="E24">
-        <v>6.972973360280244</v>
+        <v>9.785607830207473</v>
       </c>
       <c r="F24">
-        <v>46.71386592197918</v>
+        <v>43.56432239380567</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.446025219607322</v>
+        <v>9.998439596805278</v>
       </c>
       <c r="M24">
-        <v>17.19367009372822</v>
+        <v>18.73343514815542</v>
       </c>
       <c r="N24">
-        <v>13.93266140379926</v>
+        <v>21.16011851642699</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.92503491010182</v>
+        <v>23.8051071963515</v>
       </c>
       <c r="C25">
-        <v>18.28099444621715</v>
+        <v>9.939472193788134</v>
       </c>
       <c r="D25">
-        <v>5.253763255480441</v>
+        <v>8.149193326718756</v>
       </c>
       <c r="E25">
-        <v>6.815642567942177</v>
+        <v>9.751923445189288</v>
       </c>
       <c r="F25">
-        <v>43.03196516154344</v>
+        <v>42.8636283525552</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.269310756980488</v>
+        <v>10.01226940659432</v>
       </c>
       <c r="M25">
-        <v>15.76152157922953</v>
+        <v>18.55905051383602</v>
       </c>
       <c r="N25">
-        <v>14.2536246464919</v>
+        <v>21.24755745484794</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.20031648293078</v>
+        <v>26.4211838331451</v>
       </c>
       <c r="C2">
-        <v>9.121142890126894</v>
+        <v>16.64865790233346</v>
       </c>
       <c r="D2">
-        <v>8.180230647678927</v>
+        <v>5.336258922637961</v>
       </c>
       <c r="E2">
-        <v>9.726312213286716</v>
+        <v>6.702691411838805</v>
       </c>
       <c r="F2">
-        <v>42.38014468077398</v>
+        <v>40.32817583781735</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.02731762449572</v>
+        <v>6.151547753749868</v>
       </c>
       <c r="M2">
-        <v>18.44414851031804</v>
+        <v>14.79040556857033</v>
       </c>
       <c r="N2">
-        <v>21.31830534023507</v>
+        <v>14.50971097079316</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79640028415686</v>
+        <v>24.71718003369048</v>
       </c>
       <c r="C3">
-        <v>8.520819702750625</v>
+        <v>15.4756705899659</v>
       </c>
       <c r="D3">
-        <v>8.203359364886706</v>
+        <v>5.39910007081294</v>
       </c>
       <c r="E3">
-        <v>9.708442519933659</v>
+        <v>6.62717198066972</v>
       </c>
       <c r="F3">
-        <v>42.07396438172274</v>
+        <v>38.50104622898728</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.04054932860214</v>
+        <v>6.078935175467455</v>
       </c>
       <c r="M3">
-        <v>18.37493880585787</v>
+        <v>14.12613076348807</v>
       </c>
       <c r="N3">
-        <v>21.37021744265675</v>
+        <v>14.6942194351399</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.55225410524635</v>
+        <v>23.63570122605977</v>
       </c>
       <c r="C4">
-        <v>8.129543559500888</v>
+        <v>14.72118795771269</v>
       </c>
       <c r="D4">
-        <v>8.218590814447067</v>
+        <v>5.440742504564087</v>
       </c>
       <c r="E4">
-        <v>9.697215147094937</v>
+        <v>6.581098593838862</v>
       </c>
       <c r="F4">
-        <v>41.8969425217612</v>
+        <v>37.38315363987105</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.05016902832882</v>
+        <v>6.037750212838776</v>
       </c>
       <c r="M4">
-        <v>18.33678581621586</v>
+        <v>13.71603117460449</v>
       </c>
       <c r="N4">
-        <v>21.40404577617452</v>
+        <v>14.81256043272069</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.4538732988328</v>
+        <v>23.18629161099349</v>
       </c>
       <c r="C5">
-        <v>7.964377621417094</v>
+        <v>14.40493557689788</v>
       </c>
       <c r="D5">
-        <v>8.225056415159502</v>
+        <v>5.45843445803637</v>
       </c>
       <c r="E5">
-        <v>9.692575405310716</v>
+        <v>6.562370262443332</v>
       </c>
       <c r="F5">
-        <v>41.8276175720948</v>
+        <v>36.92892216880331</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.05446503871265</v>
+        <v>6.02180090828548</v>
       </c>
       <c r="M5">
-        <v>18.32233977751599</v>
+        <v>13.54851250580893</v>
       </c>
       <c r="N5">
-        <v>21.41832211871932</v>
+        <v>14.86201144444061</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.43760839615973</v>
+        <v>23.1111487116391</v>
       </c>
       <c r="C6">
-        <v>7.936606157333362</v>
+        <v>14.35188603086321</v>
       </c>
       <c r="D6">
-        <v>8.226145633695998</v>
+        <v>5.461414576102731</v>
       </c>
       <c r="E6">
-        <v>9.691801075611279</v>
+        <v>6.559262527962136</v>
       </c>
       <c r="F6">
-        <v>41.8162775593719</v>
+        <v>36.85358807206243</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.05520108717855</v>
+        <v>6.019202299947628</v>
       </c>
       <c r="M6">
-        <v>18.32000781733085</v>
+        <v>13.52067740664755</v>
       </c>
       <c r="N6">
-        <v>21.42072234125568</v>
+        <v>14.87029563991566</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55092262584592</v>
+        <v>23.62967526813014</v>
       </c>
       <c r="C7">
-        <v>8.127339245173227</v>
+        <v>14.71695870086374</v>
       </c>
       <c r="D7">
-        <v>8.218676965071195</v>
+        <v>5.440978236777929</v>
       </c>
       <c r="E7">
-        <v>9.697152835420395</v>
+        <v>6.580845860985391</v>
       </c>
       <c r="F7">
-        <v>41.8959961258626</v>
+        <v>37.3770218882136</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.05022544400875</v>
+        <v>6.03753176581643</v>
       </c>
       <c r="M7">
-        <v>18.3365865196763</v>
+        <v>13.71377333890756</v>
       </c>
       <c r="N7">
-        <v>21.40423632434928</v>
+        <v>14.81322243526381</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.06032937887678</v>
+        <v>25.8410145796597</v>
       </c>
       <c r="C8">
-        <v>8.918847913961097</v>
+        <v>16.25121028088954</v>
       </c>
       <c r="D8">
-        <v>8.187991328453943</v>
+        <v>5.357261867050714</v>
       </c>
       <c r="E8">
-        <v>9.720203551008076</v>
+        <v>6.676573367566154</v>
       </c>
       <c r="F8">
-        <v>42.27232972341312</v>
+        <v>39.69751988211682</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.03156949000335</v>
+        <v>6.12579258008833</v>
       </c>
       <c r="M8">
-        <v>18.41939007785528</v>
+        <v>14.56191260878533</v>
       </c>
       <c r="N8">
-        <v>21.33579884677151</v>
+        <v>14.57225196112574</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.08372626987843</v>
+        <v>30.06942240148041</v>
       </c>
       <c r="C9">
-        <v>10.29183033728992</v>
+        <v>18.99704985544575</v>
       </c>
       <c r="D9">
-        <v>8.136011402257251</v>
+        <v>5.219830241327336</v>
       </c>
       <c r="E9">
-        <v>9.76339481053034</v>
+        <v>6.868074260683333</v>
       </c>
       <c r="F9">
-        <v>43.09479510621736</v>
+        <v>44.27091597161217</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.00685491608031</v>
+        <v>6.326845010035285</v>
       </c>
       <c r="M9">
-        <v>18.6157304367277</v>
+        <v>16.20230753572482</v>
       </c>
       <c r="N9">
-        <v>21.21711358252189</v>
+        <v>14.1422245369189</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.84233232133093</v>
+        <v>33.06578036152614</v>
       </c>
       <c r="C10">
-        <v>11.19242253867685</v>
+        <v>20.86849220617758</v>
       </c>
       <c r="D10">
-        <v>8.102844657830788</v>
+        <v>5.139291366158476</v>
       </c>
       <c r="E10">
-        <v>9.79392349220857</v>
+        <v>7.013431617589036</v>
       </c>
       <c r="F10">
-        <v>43.74674981790645</v>
+        <v>47.64260112110686</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.995938068887703</v>
+        <v>6.493155856264115</v>
       </c>
       <c r="M10">
-        <v>18.77994718712089</v>
+        <v>17.62744222064164</v>
       </c>
       <c r="N10">
-        <v>21.13939850484956</v>
+        <v>13.85640645191038</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.18721969605732</v>
+        <v>34.38572592698147</v>
       </c>
       <c r="C11">
-        <v>11.57888310752609</v>
+        <v>21.69191763653623</v>
       </c>
       <c r="D11">
-        <v>8.088853209887965</v>
+        <v>5.108249718251586</v>
       </c>
       <c r="E11">
-        <v>9.807555181247986</v>
+        <v>7.081222641657383</v>
       </c>
       <c r="F11">
-        <v>44.05279782175253</v>
+        <v>49.1814028265</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.992544050040459</v>
+        <v>6.57325759778303</v>
       </c>
       <c r="M11">
-        <v>18.85880601053776</v>
+        <v>18.33322039101926</v>
       </c>
       <c r="N11">
-        <v>21.10610828936532</v>
+        <v>13.73415820428884</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.31765570172889</v>
+        <v>34.87983994700549</v>
       </c>
       <c r="C12">
-        <v>11.72190508491963</v>
+        <v>22.00008090747257</v>
       </c>
       <c r="D12">
-        <v>8.083713233337054</v>
+        <v>5.097419610686858</v>
       </c>
       <c r="E12">
-        <v>9.812680677661607</v>
+        <v>7.107199806939136</v>
       </c>
       <c r="F12">
-        <v>44.16997138394821</v>
+        <v>49.7652401519922</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.991484767435765</v>
+        <v>6.604269712062762</v>
       </c>
       <c r="M12">
-        <v>18.88924816669322</v>
+        <v>18.59711746164664</v>
       </c>
       <c r="N12">
-        <v>21.09379934994232</v>
+        <v>13.68911624253495</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.28957342888545</v>
+        <v>34.77366949226886</v>
       </c>
       <c r="C13">
-        <v>11.69125022546731</v>
+        <v>21.93386840715088</v>
       </c>
       <c r="D13">
-        <v>8.084813169238242</v>
+        <v>5.099708796711474</v>
       </c>
       <c r="E13">
-        <v>9.811578430485779</v>
+        <v>7.101590350218959</v>
       </c>
       <c r="F13">
-        <v>44.14468037379734</v>
+        <v>49.63944175404702</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.991702855708457</v>
+        <v>6.597559768068292</v>
       </c>
       <c r="M13">
-        <v>18.88266639715575</v>
+        <v>18.54042727868483</v>
       </c>
       <c r="N13">
-        <v>21.09643706397651</v>
+        <v>13.69875878312481</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.19795481599297</v>
+        <v>34.42648857381707</v>
       </c>
       <c r="C14">
-        <v>11.59071609541974</v>
+        <v>21.71734129518491</v>
       </c>
       <c r="D14">
-        <v>8.088427164997846</v>
+        <v>5.107339421521478</v>
       </c>
       <c r="E14">
-        <v>9.807977589408051</v>
+        <v>7.083353237558521</v>
       </c>
       <c r="F14">
-        <v>44.06241259076016</v>
+        <v>49.22940990229493</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.992452374515864</v>
+        <v>6.575795112837487</v>
       </c>
       <c r="M14">
-        <v>18.86129898460884</v>
+        <v>18.35499705965748</v>
       </c>
       <c r="N14">
-        <v>21.10508966206527</v>
+        <v>13.7304266445132</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.14181030406568</v>
+        <v>34.21310096545971</v>
       </c>
       <c r="C15">
-        <v>11.52870389615456</v>
+        <v>21.5842485277358</v>
       </c>
       <c r="D15">
-        <v>8.090661473962104</v>
+        <v>5.112137752799777</v>
       </c>
       <c r="E15">
-        <v>9.80576722147471</v>
+        <v>7.072224534950625</v>
       </c>
       <c r="F15">
-        <v>44.0121853897727</v>
+        <v>48.97841550525904</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.992940898642356</v>
+        <v>6.562553413645139</v>
       </c>
       <c r="M15">
-        <v>18.84828582577384</v>
+        <v>18.24098641600827</v>
       </c>
       <c r="N15">
-        <v>21.11042837304133</v>
+        <v>13.74999144165328</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.81977724399716</v>
+        <v>32.97869021737211</v>
       </c>
       <c r="C16">
-        <v>11.16670058903792</v>
+        <v>20.81414770208675</v>
       </c>
       <c r="D16">
-        <v>8.103781145716448</v>
+        <v>5.141442392640683</v>
       </c>
       <c r="E16">
-        <v>9.793027502490837</v>
+        <v>7.009040269534239</v>
       </c>
       <c r="F16">
-        <v>43.72693248279056</v>
+        <v>47.54216813796749</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.996191502963603</v>
+        <v>6.488013741274239</v>
       </c>
       <c r="M16">
-        <v>18.77487572480193</v>
+        <v>17.58083073029081</v>
       </c>
       <c r="N16">
-        <v>21.14161566743206</v>
+        <v>13.86456282545597</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.62206928776162</v>
+        <v>32.21069055140436</v>
       </c>
       <c r="C17">
-        <v>10.93868745188481</v>
+        <v>20.33481057925252</v>
       </c>
       <c r="D17">
-        <v>8.112110867959634</v>
+        <v>5.160931947852164</v>
       </c>
       <c r="E17">
-        <v>9.785146737974443</v>
+        <v>6.970749365418714</v>
       </c>
       <c r="F17">
-        <v>43.55430721945754</v>
+        <v>46.66259135034222</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.998588240377169</v>
+        <v>6.443451083395445</v>
       </c>
       <c r="M17">
-        <v>18.73089323878386</v>
+        <v>17.16953823924527</v>
       </c>
       <c r="N17">
-        <v>21.16127688529575</v>
+        <v>13.93692568541234</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.50834127544064</v>
+        <v>31.76486586519017</v>
       </c>
       <c r="C18">
-        <v>10.8053533941606</v>
+        <v>20.05645759838572</v>
       </c>
       <c r="D18">
-        <v>8.117005050502724</v>
+        <v>5.17266019104679</v>
       </c>
       <c r="E18">
-        <v>9.780589821726252</v>
+        <v>6.948877757184392</v>
       </c>
       <c r="F18">
-        <v>43.45591424834608</v>
+        <v>46.15711824054804</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.00011476515286</v>
+        <v>6.418235545416416</v>
       </c>
       <c r="M18">
-        <v>18.70598796012189</v>
+        <v>16.93056711113203</v>
       </c>
       <c r="N18">
-        <v>21.17277960944947</v>
+        <v>13.97926897090434</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.46983715166859</v>
+        <v>31.61320137069206</v>
       </c>
       <c r="C19">
-        <v>10.75983264275759</v>
+        <v>19.9617465705932</v>
       </c>
       <c r="D19">
-        <v>8.118679833027713</v>
+        <v>5.176716885222081</v>
       </c>
       <c r="E19">
-        <v>9.779042778975072</v>
+        <v>6.941496733120787</v>
       </c>
       <c r="F19">
-        <v>43.4227565101237</v>
+        <v>45.9860392054696</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.00065703904533</v>
+        <v>6.409768294234946</v>
       </c>
       <c r="M19">
-        <v>18.6976233539963</v>
+        <v>16.84923430009508</v>
       </c>
       <c r="N19">
-        <v>21.17670755170897</v>
+        <v>13.99372607177302</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.64311784085452</v>
+        <v>32.29286570048377</v>
       </c>
       <c r="C20">
-        <v>10.96318605421997</v>
+        <v>20.38610874153433</v>
       </c>
       <c r="D20">
-        <v>8.111213474971359</v>
+        <v>5.158802800424927</v>
       </c>
       <c r="E20">
-        <v>9.785988151974037</v>
+        <v>6.974809291329515</v>
       </c>
       <c r="F20">
-        <v>43.57259127322114</v>
+        <v>46.75617629116279</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.998317788320341</v>
+        <v>6.448151561703022</v>
       </c>
       <c r="M20">
-        <v>18.73553477358592</v>
+        <v>17.2135681798804</v>
       </c>
       <c r="N20">
-        <v>21.15916382018943</v>
+        <v>13.92914692362856</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.22487096472711</v>
+        <v>34.5286150216589</v>
       </c>
       <c r="C21">
-        <v>11.62033543342609</v>
+        <v>21.78103645677394</v>
       </c>
       <c r="D21">
-        <v>8.08736134593047</v>
+        <v>5.105071961456378</v>
       </c>
       <c r="E21">
-        <v>9.809036232870152</v>
+        <v>7.088701018772461</v>
       </c>
       <c r="F21">
-        <v>44.08654256538455</v>
+        <v>49.3498114535064</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.992226091390433</v>
+        <v>6.582169127311557</v>
       </c>
       <c r="M21">
-        <v>18.86755951480227</v>
+        <v>18.40955131047199</v>
       </c>
       <c r="N21">
-        <v>21.10254010853203</v>
+        <v>13.72108987915361</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.60405759415331</v>
+        <v>35.95675119921559</v>
       </c>
       <c r="C22">
-        <v>12.03046398361793</v>
+        <v>22.67163707669571</v>
       </c>
       <c r="D22">
-        <v>8.072695496652806</v>
+        <v>5.075417728625309</v>
       </c>
       <c r="E22">
-        <v>9.823886700131142</v>
+        <v>7.164960831586496</v>
       </c>
       <c r="F22">
-        <v>44.42985948230282</v>
+        <v>51.05179550448383</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.989561781480305</v>
+        <v>6.673741297470954</v>
       </c>
       <c r="M22">
-        <v>18.95721733290635</v>
+        <v>19.17173841052081</v>
       </c>
       <c r="N22">
-        <v>21.0672667422397</v>
+        <v>13.59248625798245</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.40181547170266</v>
+        <v>35.19737026787456</v>
       </c>
       <c r="C23">
-        <v>11.81333606067724</v>
+        <v>22.19809955916557</v>
       </c>
       <c r="D23">
-        <v>8.080438274486056</v>
+        <v>5.090699440901194</v>
       </c>
       <c r="E23">
-        <v>9.815980104165812</v>
+        <v>7.124067207817947</v>
       </c>
       <c r="F23">
-        <v>44.24597359325298</v>
+        <v>50.14259957692344</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.990863323108073</v>
+        <v>6.624487720112951</v>
       </c>
       <c r="M23">
-        <v>18.90906279063191</v>
+        <v>18.76662107355634</v>
       </c>
       <c r="N23">
-        <v>21.0859339379825</v>
+        <v>13.66039814301609</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.63360197610892</v>
+        <v>32.25572771744582</v>
       </c>
       <c r="C24">
-        <v>10.95211723403113</v>
+        <v>20.36292551455776</v>
       </c>
       <c r="D24">
-        <v>8.111618858359058</v>
+        <v>5.159763766391579</v>
       </c>
       <c r="E24">
-        <v>9.785607830207473</v>
+        <v>6.972973360280248</v>
       </c>
       <c r="F24">
-        <v>43.56432239380567</v>
+        <v>46.71386592197909</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.998439596805278</v>
+        <v>6.446025219607342</v>
       </c>
       <c r="M24">
-        <v>18.73343514815542</v>
+        <v>17.19367009372822</v>
       </c>
       <c r="N24">
-        <v>21.16011851642699</v>
+        <v>13.93266140379922</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8051071963515</v>
+        <v>28.9250349101018</v>
       </c>
       <c r="C25">
-        <v>9.939472193788134</v>
+        <v>18.28099444621723</v>
       </c>
       <c r="D25">
-        <v>8.149193326718756</v>
+        <v>5.253763255480657</v>
       </c>
       <c r="E25">
-        <v>9.751923445189288</v>
+        <v>6.81564256794218</v>
       </c>
       <c r="F25">
-        <v>42.8636283525552</v>
+        <v>43.0319651615435</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.01226940659432</v>
+        <v>6.269310756980436</v>
       </c>
       <c r="M25">
-        <v>18.55905051383602</v>
+        <v>15.76152157922954</v>
       </c>
       <c r="N25">
-        <v>21.24755745484794</v>
+        <v>14.253624646492</v>
       </c>
       <c r="O25">
         <v>0</v>
